--- a/docs/excel/TGoldenBeanAward.xlsx
+++ b/docs/excel/TGoldenBeanAward.xlsx
@@ -76,12 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>awardId</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -91,6 +85,14 @@
       </rPr>
       <t>名字</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +522,7 @@
   <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -532,10 +534,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -555,7 +557,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
